--- a/biology/Zoologie/Glande_de_mue/Glande_de_mue.xlsx
+++ b/biology/Zoologie/Glande_de_mue/Glande_de_mue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glande de mue est le nom général que l'on donne à la glande endocrine qui contrôle le développement des arthropodes en assurant la biosynthèse de l’hormone de mue ou ecdysone. Il y a généralement deux glandes de mue par animal, qui peuvent éventuellement fusionner en un seul organe.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine embryologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La glande de mue se forme vers la moitié du développement embryonnaire, à partir d'invaginations ectodermiques chez les insectes et les crustacés. Des études effectuées chez les insectes ont montré que cette glande avait pour origine des territoires embryonnaires céphaliques (du segment labial le plus souvent) et/ou thoraciques (du premier segment thoracique). Chez les crustacés, la glande de mue provient du segment maxillaire.
 Chez les myriapodes et les chélicérates, au contraire, les glandes de mue auraient une origine mésodermique. Il apparait donc que les glandes de mue ne sont probablement pas homologues d'un groupe d'arthropodes à un autre.
@@ -543,7 +557,9 @@
           <t>Localisation anatomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les insectes, cette glande est souvent appelée glande prothoracique, en raison de sa localisation dans le premier segment thoracique. Toutefois, cette localisation et, par conséquent, cette appellation diffèrent chez certains insectes :
 chez de nombreux insectes hétérométaboles, comme les criquets, la glande de mue, appelée glande ventrale, est située en partie dans la tête (en position ventrale) et s'étend dans la région du cou.
@@ -579,7 +595,9 @@
           <t>Rôle biologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom l'indique, la glande de mue a pour rôle principal de déclencher la mue des arthropodes en sécrétant l'hormone de mue. Plus précisément, elle sécrète un précurseur de l'hormone de mue, l'ecdysone, ou des composés voisins, comme la 3-déhydro-ecdysone ou la 2-désoxy-ecdysone. La transformation en hormone de mue active, la 20-hydroxy-ecdysone, a lieu dans d'autres organes, qui sont aussi des tissus-cibles de cette hormone. Les précurseurs sécrétés par la glande de mue, beaucoup moins actifs que la 20-hydroxy-ecdysone, sont parfois considérés comme des prohormones.
 À la fin du développement embryonnaire, de même qu'au cours de chaque stade larvaire, la glande de mue effectue des cycles d'activité pendant lesquels les cellules glandulaires s'épaississent et sécrètent l'ecdysone, entrainant ainsi la sécrétion d'une nouvelle cuticule par l'épiderme, puis la mue.
@@ -612,7 +630,9 @@
           <t>Dégénérescence de la glande de mue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La glande de mue persiste tout au long de la vie des insectes aptérygotes, qui continuent à muer après avoir atteint leur maturité sexuelle. Mais elle disparait au cours de la métamorphose chez les autres insectes, qui ne muent plus à l'état adulte. Elle peut donc être considérée comme un organe strictement larvaire chez ces animaux. Certains de ces insectes conservent toutefois leur glande de mue dans des cas très particuliers de polymorphisme : c'est le cas des criquets adultes en phase grégaire ou des soldats de termites.
 La disparition de la glande de mue au cours de la métamorphose des insectes n'implique pas la disparition de l'ecdysone, qui est également synthétisée par d'autres organes, notamment les gonades chez l'adulte. 
@@ -646,7 +666,9 @@
           <t>Contrôle neuro-endocrine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La biosynthèse d'ecdysone par la glande de mue est soumise à une régulation complexe par des facteurs peptidiques, essentiellement d'origine neurohormonale. On peut considérer qu'il existe, probablement chez tous les arthropodes, deux sortes de facteurs régulateurs :
 des facteurs activateurs de la mue, nommés ecdysiotropines, qui stimulent la biosynthèse d'ecdysone,
